--- a/data/favorites.xlsx
+++ b/data/favorites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sesac_project_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sesac_project_git\data\data_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3A7177-25E0-4AB9-8B62-D7A91B6DB44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381CE72-2DA9-464E-8408-3AB387D7F6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="735" windowWidth="15810" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11670" yWindow="1290" windowWidth="15810" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰 테이블 데이터" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>USERID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1043,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,6 +1502,150 @@
         <v>4</v>
       </c>
     </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
